--- a/CoPilot_on_Algorithm_Design/Sorting_Algorithms/Selection_Sort/simiparity_comparison.xlsx
+++ b/CoPilot_on_Algorithm_Design/Sorting_Algorithms/Selection_Sort/simiparity_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GH-Dataset\Copilot_asset_liability\CopilotEvaluation\CoPilot_on_Algorithm_Design\Sorting_Algorithms\Selection_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE1D4C7-3A94-45BA-9C5C-1825496382CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7485812-B352-4B86-9CD0-459A0421FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simiparity_comparison" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">simiparity_comparison!$A$1:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -919,19 +932,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H24"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1632,7 +1645,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H26">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
         <filter val="FALSE"/>
@@ -1644,12 +1657,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1697,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2035,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2140,10 +2153,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="1"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2152,7 +2165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2457,10 +2470,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
